--- a/data/s1/2024/2/22/S1_BL7/22_02_2024-S1_BL7.xlsx
+++ b/data/s1/2024/2/22/S1_BL7/22_02_2024-S1_BL7.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM537"/>
+  <dimension ref="A1:AM586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63333,6 +63333,5739 @@
       <c r="AL537" t="inlineStr"/>
       <c r="AM537" t="inlineStr"/>
     </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>45344.60350694445</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>556.7</v>
+      </c>
+      <c r="D538" t="n">
+        <v>489.1</v>
+      </c>
+      <c r="E538" t="n">
+        <v>533.5</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0</v>
+      </c>
+      <c r="G538" t="n">
+        <v>22</v>
+      </c>
+      <c r="H538" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="I538" t="n">
+        <v>12</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0</v>
+      </c>
+      <c r="K538" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="L538" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="M538" t="n">
+        <v>227</v>
+      </c>
+      <c r="N538" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="O538" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="P538" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="R538" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="S538" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="T538" t="n">
+        <v>28862</v>
+      </c>
+      <c r="U538" t="n">
+        <v>1</v>
+      </c>
+      <c r="V538" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="W538" t="n">
+        <v>42516.8</v>
+      </c>
+      <c r="X538" t="n">
+        <v>3077</v>
+      </c>
+      <c r="Y538" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z538" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AA538" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB538" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AC538" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD538" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE538" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF538" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG538" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AH538" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI538" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ538" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK538" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL538" t="inlineStr"/>
+      <c r="AM538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>45344.60696759259</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>559.5</v>
+      </c>
+      <c r="D539" t="n">
+        <v>493.5</v>
+      </c>
+      <c r="E539" t="n">
+        <v>531</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0</v>
+      </c>
+      <c r="G539" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="H539" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I539" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J539" t="n">
+        <v>0</v>
+      </c>
+      <c r="K539" t="n">
+        <v>228.2</v>
+      </c>
+      <c r="L539" t="n">
+        <v>227.2</v>
+      </c>
+      <c r="M539" t="n">
+        <v>227</v>
+      </c>
+      <c r="N539" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="O539" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="P539" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="R539" t="n">
+        <v>59.91</v>
+      </c>
+      <c r="S539" t="n">
+        <v>59.92</v>
+      </c>
+      <c r="T539" t="n">
+        <v>27397</v>
+      </c>
+      <c r="U539" t="n">
+        <v>1</v>
+      </c>
+      <c r="V539" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="W539" t="n">
+        <v>42519.1</v>
+      </c>
+      <c r="X539" t="n">
+        <v>3077</v>
+      </c>
+      <c r="Y539" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Z539" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA539" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB539" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC539" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD539" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE539" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF539" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG539" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH539" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI539" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ539" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK539" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL539" t="inlineStr"/>
+      <c r="AM539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>45344.61045138889</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>553.5</v>
+      </c>
+      <c r="D540" t="n">
+        <v>485.4</v>
+      </c>
+      <c r="E540" t="n">
+        <v>533.9</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0</v>
+      </c>
+      <c r="G540" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H540" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="I540" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0</v>
+      </c>
+      <c r="K540" t="n">
+        <v>228</v>
+      </c>
+      <c r="L540" t="n">
+        <v>226.8</v>
+      </c>
+      <c r="M540" t="n">
+        <v>226.6</v>
+      </c>
+      <c r="N540" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="O540" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="P540" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>60.03</v>
+      </c>
+      <c r="R540" t="n">
+        <v>60.03</v>
+      </c>
+      <c r="S540" t="n">
+        <v>60.03</v>
+      </c>
+      <c r="T540" t="n">
+        <v>26435</v>
+      </c>
+      <c r="U540" t="n">
+        <v>1</v>
+      </c>
+      <c r="V540" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="W540" t="n">
+        <v>42521.4</v>
+      </c>
+      <c r="X540" t="n">
+        <v>3077</v>
+      </c>
+      <c r="Y540" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Z540" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA540" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB540" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC540" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD540" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE540" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF540" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG540" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH540" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI540" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ540" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK540" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL540" t="inlineStr"/>
+      <c r="AM540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>45344.61392361111</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>520.9</v>
+      </c>
+      <c r="D541" t="n">
+        <v>519.4</v>
+      </c>
+      <c r="E541" t="n">
+        <v>516.3</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0</v>
+      </c>
+      <c r="G541" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H541" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I541" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J541" t="n">
+        <v>0</v>
+      </c>
+      <c r="K541" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="L541" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="M541" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="N541" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="O541" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="P541" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>60</v>
+      </c>
+      <c r="R541" t="n">
+        <v>60</v>
+      </c>
+      <c r="S541" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="T541" t="n">
+        <v>4468</v>
+      </c>
+      <c r="U541" t="n">
+        <v>1</v>
+      </c>
+      <c r="V541" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="W541" t="n">
+        <v>42522.4</v>
+      </c>
+      <c r="X541" t="n">
+        <v>3078</v>
+      </c>
+      <c r="Y541" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z541" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA541" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB541" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC541" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD541" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AE541" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF541" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AG541" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH541" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI541" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ541" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK541" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL541" t="inlineStr"/>
+      <c r="AM541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>45344.61739583333</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>577.5</v>
+      </c>
+      <c r="D542" t="n">
+        <v>500.7</v>
+      </c>
+      <c r="E542" t="n">
+        <v>548.5</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0</v>
+      </c>
+      <c r="G542" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H542" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J542" t="n">
+        <v>0</v>
+      </c>
+      <c r="K542" t="n">
+        <v>229</v>
+      </c>
+      <c r="L542" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="M542" t="n">
+        <v>226.6</v>
+      </c>
+      <c r="N542" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="O542" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="P542" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="Q542" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="R542" t="n">
+        <v>60.03</v>
+      </c>
+      <c r="S542" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="T542" t="n">
+        <v>28861</v>
+      </c>
+      <c r="U542" t="n">
+        <v>1</v>
+      </c>
+      <c r="V542" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="W542" t="n">
+        <v>42524</v>
+      </c>
+      <c r="X542" t="n">
+        <v>3078</v>
+      </c>
+      <c r="Y542" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z542" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA542" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB542" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC542" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AD542" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE542" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF542" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG542" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH542" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI542" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ542" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK542" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL542" t="inlineStr"/>
+      <c r="AM542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>45344.62087962963</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>561.9</v>
+      </c>
+      <c r="D543" t="n">
+        <v>499.7</v>
+      </c>
+      <c r="E543" t="n">
+        <v>539.5</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0</v>
+      </c>
+      <c r="G543" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="H543" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I543" t="n">
+        <v>11</v>
+      </c>
+      <c r="J543" t="n">
+        <v>0</v>
+      </c>
+      <c r="K543" t="n">
+        <v>228.4</v>
+      </c>
+      <c r="L543" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="M543" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="N543" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="O543" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="P543" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="R543" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="S543" t="n">
+        <v>59.94</v>
+      </c>
+      <c r="T543" t="n">
+        <v>26550</v>
+      </c>
+      <c r="U543" t="n">
+        <v>1</v>
+      </c>
+      <c r="V543" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="W543" t="n">
+        <v>42526.3</v>
+      </c>
+      <c r="X543" t="n">
+        <v>3078</v>
+      </c>
+      <c r="Y543" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z543" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AA543" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB543" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC543" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AD543" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE543" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF543" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG543" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH543" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI543" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ543" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK543" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL543" t="inlineStr"/>
+      <c r="AM543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>45344.62435185185</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>563.3</v>
+      </c>
+      <c r="D544" t="n">
+        <v>495.4</v>
+      </c>
+      <c r="E544" t="n">
+        <v>542.3</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0</v>
+      </c>
+      <c r="G544" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H544" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I544" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J544" t="n">
+        <v>0</v>
+      </c>
+      <c r="K544" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="L544" t="n">
+        <v>226.8</v>
+      </c>
+      <c r="M544" t="n">
+        <v>227</v>
+      </c>
+      <c r="N544" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="O544" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="P544" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>60</v>
+      </c>
+      <c r="R544" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="S544" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="T544" t="n">
+        <v>25204</v>
+      </c>
+      <c r="U544" t="n">
+        <v>1</v>
+      </c>
+      <c r="V544" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="W544" t="n">
+        <v>42528.5</v>
+      </c>
+      <c r="X544" t="n">
+        <v>3078</v>
+      </c>
+      <c r="Y544" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Z544" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA544" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB544" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC544" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD544" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE544" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF544" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG544" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AH544" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI544" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ544" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK544" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL544" t="inlineStr"/>
+      <c r="AM544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>45344.6278125</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>559.5</v>
+      </c>
+      <c r="D545" t="n">
+        <v>491.4</v>
+      </c>
+      <c r="E545" t="n">
+        <v>542.8</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0</v>
+      </c>
+      <c r="G545" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H545" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="I545" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J545" t="n">
+        <v>0</v>
+      </c>
+      <c r="K545" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="L545" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="M545" t="n">
+        <v>226.4</v>
+      </c>
+      <c r="N545" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="O545" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="P545" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="R545" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="S545" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="T545" t="n">
+        <v>24212</v>
+      </c>
+      <c r="U545" t="n">
+        <v>1</v>
+      </c>
+      <c r="V545" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="W545" t="n">
+        <v>42530.5</v>
+      </c>
+      <c r="X545" t="n">
+        <v>3078</v>
+      </c>
+      <c r="Y545" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Z545" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA545" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB545" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AC545" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD545" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE545" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF545" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AG545" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AH545" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI545" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ545" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK545" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL545" t="inlineStr"/>
+      <c r="AM545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>45344.63128472222</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>564.5</v>
+      </c>
+      <c r="D546" t="n">
+        <v>505.5</v>
+      </c>
+      <c r="E546" t="n">
+        <v>546</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0</v>
+      </c>
+      <c r="G546" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="H546" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="I546" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J546" t="n">
+        <v>0</v>
+      </c>
+      <c r="K546" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="L546" t="n">
+        <v>226.4</v>
+      </c>
+      <c r="M546" t="n">
+        <v>226.6</v>
+      </c>
+      <c r="N546" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="O546" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="P546" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="R546" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="S546" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="T546" t="n">
+        <v>23297</v>
+      </c>
+      <c r="U546" t="n">
+        <v>1</v>
+      </c>
+      <c r="V546" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="W546" t="n">
+        <v>42532.5</v>
+      </c>
+      <c r="X546" t="n">
+        <v>3078</v>
+      </c>
+      <c r="Y546" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Z546" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA546" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB546" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC546" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AD546" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AE546" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AF546" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AG546" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AH546" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI546" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ546" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK546" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL546" t="inlineStr"/>
+      <c r="AM546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>45344.63476851852</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>544.1</v>
+      </c>
+      <c r="D547" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="E547" t="n">
+        <v>538.9</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0</v>
+      </c>
+      <c r="G547" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H547" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I547" t="n">
+        <v>9</v>
+      </c>
+      <c r="J547" t="n">
+        <v>0</v>
+      </c>
+      <c r="K547" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="L547" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="M547" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="N547" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="O547" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="P547" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>60.03</v>
+      </c>
+      <c r="R547" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="S547" t="n">
+        <v>60</v>
+      </c>
+      <c r="T547" t="n">
+        <v>22094</v>
+      </c>
+      <c r="U547" t="n">
+        <v>1</v>
+      </c>
+      <c r="V547" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="W547" t="n">
+        <v>42534.4</v>
+      </c>
+      <c r="X547" t="n">
+        <v>3078</v>
+      </c>
+      <c r="Y547" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z547" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA547" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB547" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC547" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD547" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE547" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF547" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG547" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AH547" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI547" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ547" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK547" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL547" t="inlineStr"/>
+      <c r="AM547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>45344.63824074074</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>564.5</v>
+      </c>
+      <c r="D548" t="n">
+        <v>515.8</v>
+      </c>
+      <c r="E548" t="n">
+        <v>549.4</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0</v>
+      </c>
+      <c r="G548" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H548" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J548" t="n">
+        <v>0</v>
+      </c>
+      <c r="K548" t="n">
+        <v>227</v>
+      </c>
+      <c r="L548" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="M548" t="n">
+        <v>227.2</v>
+      </c>
+      <c r="N548" t="n">
+        <v>55</v>
+      </c>
+      <c r="O548" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="P548" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="R548" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="S548" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="T548" t="n">
+        <v>21194</v>
+      </c>
+      <c r="U548" t="n">
+        <v>1</v>
+      </c>
+      <c r="V548" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="W548" t="n">
+        <v>42536.2</v>
+      </c>
+      <c r="X548" t="n">
+        <v>3078</v>
+      </c>
+      <c r="Y548" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z548" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA548" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB548" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC548" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD548" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE548" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF548" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG548" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AH548" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI548" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ548" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK548" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL548" t="inlineStr"/>
+      <c r="AM548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>45344.64171296296</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>533.1</v>
+      </c>
+      <c r="D549" t="n">
+        <v>519.7</v>
+      </c>
+      <c r="E549" t="n">
+        <v>544.6</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0</v>
+      </c>
+      <c r="G549" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H549" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="I549" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J549" t="n">
+        <v>0</v>
+      </c>
+      <c r="K549" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="L549" t="n">
+        <v>226</v>
+      </c>
+      <c r="M549" t="n">
+        <v>226.6</v>
+      </c>
+      <c r="N549" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="O549" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="P549" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="Q549" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="R549" t="n">
+        <v>60</v>
+      </c>
+      <c r="S549" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="T549" t="n">
+        <v>20470</v>
+      </c>
+      <c r="U549" t="n">
+        <v>1</v>
+      </c>
+      <c r="V549" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="W549" t="n">
+        <v>42537.9</v>
+      </c>
+      <c r="X549" t="n">
+        <v>3078</v>
+      </c>
+      <c r="Y549" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z549" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA549" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB549" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC549" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD549" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE549" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF549" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG549" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AH549" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI549" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ549" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK549" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL549" t="inlineStr"/>
+      <c r="AM549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>45344.64517361111</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>506</v>
+      </c>
+      <c r="D550" t="n">
+        <v>515.7</v>
+      </c>
+      <c r="E550" t="n">
+        <v>549.4</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0</v>
+      </c>
+      <c r="G550" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H550" t="n">
+        <v>17</v>
+      </c>
+      <c r="I550" t="n">
+        <v>8</v>
+      </c>
+      <c r="J550" t="n">
+        <v>0</v>
+      </c>
+      <c r="K550" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="L550" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="M550" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="N550" t="n">
+        <v>51</v>
+      </c>
+      <c r="O550" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="P550" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="Q550" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="R550" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="S550" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="T550" t="n">
+        <v>19524</v>
+      </c>
+      <c r="U550" t="n">
+        <v>1</v>
+      </c>
+      <c r="V550" t="n">
+        <v>47</v>
+      </c>
+      <c r="W550" t="n">
+        <v>42539.6</v>
+      </c>
+      <c r="X550" t="n">
+        <v>3078</v>
+      </c>
+      <c r="Y550" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z550" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA550" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB550" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC550" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD550" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE550" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF550" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG550" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AH550" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI550" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ550" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK550" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL550" t="inlineStr"/>
+      <c r="AM550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>45344.64864583333</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>503.7</v>
+      </c>
+      <c r="D551" t="n">
+        <v>524</v>
+      </c>
+      <c r="E551" t="n">
+        <v>551.1</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0</v>
+      </c>
+      <c r="G551" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H551" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="I551" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J551" t="n">
+        <v>0</v>
+      </c>
+      <c r="K551" t="n">
+        <v>226.4</v>
+      </c>
+      <c r="L551" t="n">
+        <v>225</v>
+      </c>
+      <c r="M551" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="N551" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="O551" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="P551" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="R551" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="S551" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="T551" t="n">
+        <v>15135</v>
+      </c>
+      <c r="U551" t="n">
+        <v>1</v>
+      </c>
+      <c r="V551" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="W551" t="n">
+        <v>42541.1</v>
+      </c>
+      <c r="X551" t="n">
+        <v>3078</v>
+      </c>
+      <c r="Y551" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z551" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA551" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB551" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC551" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD551" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE551" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF551" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG551" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AH551" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI551" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ551" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK551" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL551" t="inlineStr"/>
+      <c r="AM551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>45344.65212962963</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>505</v>
+      </c>
+      <c r="D552" t="n">
+        <v>527.7</v>
+      </c>
+      <c r="E552" t="n">
+        <v>544.5</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0</v>
+      </c>
+      <c r="G552" t="n">
+        <v>12</v>
+      </c>
+      <c r="H552" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J552" t="n">
+        <v>0</v>
+      </c>
+      <c r="K552" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="L552" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="M552" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="N552" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="O552" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="P552" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="Q552" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="R552" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="S552" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="T552" t="n">
+        <v>14874</v>
+      </c>
+      <c r="U552" t="n">
+        <v>1</v>
+      </c>
+      <c r="V552" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="W552" t="n">
+        <v>42542.5</v>
+      </c>
+      <c r="X552" t="n">
+        <v>3078</v>
+      </c>
+      <c r="Y552" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z552" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA552" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB552" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC552" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD552" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE552" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF552" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG552" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH552" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI552" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ552" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK552" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL552" t="inlineStr"/>
+      <c r="AM552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>45344.65560185185</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>515</v>
+      </c>
+      <c r="D553" t="n">
+        <v>525.6</v>
+      </c>
+      <c r="E553" t="n">
+        <v>554.6</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0</v>
+      </c>
+      <c r="G553" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H553" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="I553" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J553" t="n">
+        <v>0</v>
+      </c>
+      <c r="K553" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="L553" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="M553" t="n">
+        <v>224</v>
+      </c>
+      <c r="N553" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="O553" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="P553" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q553" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="R553" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="S553" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="T553" t="n">
+        <v>16721</v>
+      </c>
+      <c r="U553" t="n">
+        <v>1</v>
+      </c>
+      <c r="V553" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="W553" t="n">
+        <v>42543.7</v>
+      </c>
+      <c r="X553" t="n">
+        <v>3079</v>
+      </c>
+      <c r="Y553" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z553" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA553" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB553" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC553" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD553" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE553" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF553" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG553" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AH553" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI553" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ553" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK553" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL553" t="inlineStr"/>
+      <c r="AM553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>45344.65907407407</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>517.9</v>
+      </c>
+      <c r="D554" t="n">
+        <v>527.5</v>
+      </c>
+      <c r="E554" t="n">
+        <v>548.8</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0</v>
+      </c>
+      <c r="G554" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H554" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I554" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J554" t="n">
+        <v>0</v>
+      </c>
+      <c r="K554" t="n">
+        <v>225</v>
+      </c>
+      <c r="L554" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="M554" t="n">
+        <v>225</v>
+      </c>
+      <c r="N554" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="O554" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="P554" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="Q554" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="R554" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="S554" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="T554" t="n">
+        <v>14453</v>
+      </c>
+      <c r="U554" t="n">
+        <v>1</v>
+      </c>
+      <c r="V554" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="W554" t="n">
+        <v>42545.1</v>
+      </c>
+      <c r="X554" t="n">
+        <v>3079</v>
+      </c>
+      <c r="Y554" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z554" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA554" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB554" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC554" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD554" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE554" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF554" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG554" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH554" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI554" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ554" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK554" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL554" t="inlineStr"/>
+      <c r="AM554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>45344.66253472222</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>547.5</v>
+      </c>
+      <c r="D555" t="n">
+        <v>528.3</v>
+      </c>
+      <c r="E555" t="n">
+        <v>549.4</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0</v>
+      </c>
+      <c r="G555" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H555" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J555" t="n">
+        <v>0</v>
+      </c>
+      <c r="K555" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="L555" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="M555" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="N555" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="O555" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="P555" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="Q555" t="n">
+        <v>60</v>
+      </c>
+      <c r="R555" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="S555" t="n">
+        <v>60</v>
+      </c>
+      <c r="T555" t="n">
+        <v>14429</v>
+      </c>
+      <c r="U555" t="n">
+        <v>1</v>
+      </c>
+      <c r="V555" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="W555" t="n">
+        <v>42546.3</v>
+      </c>
+      <c r="X555" t="n">
+        <v>3079</v>
+      </c>
+      <c r="Y555" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z555" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA555" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AB555" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC555" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD555" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE555" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF555" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG555" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH555" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI555" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ555" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK555" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL555" t="inlineStr"/>
+      <c r="AM555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>45344.66601851852</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>538</v>
+      </c>
+      <c r="D556" t="n">
+        <v>531.8</v>
+      </c>
+      <c r="E556" t="n">
+        <v>549.9</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0</v>
+      </c>
+      <c r="G556" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H556" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I556" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J556" t="n">
+        <v>0</v>
+      </c>
+      <c r="K556" t="n">
+        <v>226</v>
+      </c>
+      <c r="L556" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="M556" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="N556" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="O556" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="P556" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q556" t="n">
+        <v>60.04</v>
+      </c>
+      <c r="R556" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="S556" t="n">
+        <v>60.03</v>
+      </c>
+      <c r="T556" t="n">
+        <v>15872</v>
+      </c>
+      <c r="U556" t="n">
+        <v>1</v>
+      </c>
+      <c r="V556" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="W556" t="n">
+        <v>42547.6</v>
+      </c>
+      <c r="X556" t="n">
+        <v>3079</v>
+      </c>
+      <c r="Y556" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z556" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA556" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB556" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC556" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD556" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE556" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF556" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG556" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AH556" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI556" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ556" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK556" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL556" t="inlineStr"/>
+      <c r="AM556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>45344.66949074074</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>526.2</v>
+      </c>
+      <c r="D557" t="n">
+        <v>525.9</v>
+      </c>
+      <c r="E557" t="n">
+        <v>548.4</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0</v>
+      </c>
+      <c r="G557" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H557" t="n">
+        <v>10</v>
+      </c>
+      <c r="I557" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J557" t="n">
+        <v>0</v>
+      </c>
+      <c r="K557" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="L557" t="n">
+        <v>223</v>
+      </c>
+      <c r="M557" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="N557" t="n">
+        <v>31</v>
+      </c>
+      <c r="O557" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="P557" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q557" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="R557" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="S557" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="T557" t="n">
+        <v>12317</v>
+      </c>
+      <c r="U557" t="n">
+        <v>1</v>
+      </c>
+      <c r="V557" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="W557" t="n">
+        <v>42548.9</v>
+      </c>
+      <c r="X557" t="n">
+        <v>3079</v>
+      </c>
+      <c r="Y557" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z557" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA557" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB557" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC557" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD557" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AE557" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF557" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG557" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH557" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI557" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ557" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK557" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL557" t="inlineStr"/>
+      <c r="AM557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>45344.67296296296</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>531.9</v>
+      </c>
+      <c r="D558" t="n">
+        <v>526.6</v>
+      </c>
+      <c r="E558" t="n">
+        <v>553.5</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0</v>
+      </c>
+      <c r="G558" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H558" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J558" t="n">
+        <v>0</v>
+      </c>
+      <c r="K558" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="L558" t="n">
+        <v>224</v>
+      </c>
+      <c r="M558" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="N558" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="O558" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="P558" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="Q558" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="R558" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="S558" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="T558" t="n">
+        <v>14097</v>
+      </c>
+      <c r="U558" t="n">
+        <v>1</v>
+      </c>
+      <c r="V558" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="W558" t="n">
+        <v>42549.9</v>
+      </c>
+      <c r="X558" t="n">
+        <v>3079</v>
+      </c>
+      <c r="Y558" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z558" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA558" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB558" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC558" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD558" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE558" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF558" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG558" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AH558" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI558" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ558" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK558" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL558" t="inlineStr"/>
+      <c r="AM558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>45344.67644675926</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>527.7</v>
+      </c>
+      <c r="D559" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="E559" t="n">
+        <v>552.5</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0</v>
+      </c>
+      <c r="G559" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H559" t="n">
+        <v>11</v>
+      </c>
+      <c r="I559" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J559" t="n">
+        <v>0</v>
+      </c>
+      <c r="K559" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="L559" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="M559" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="N559" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="O559" t="n">
+        <v>35</v>
+      </c>
+      <c r="P559" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="Q559" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="R559" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="S559" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="T559" t="n">
+        <v>13120</v>
+      </c>
+      <c r="U559" t="n">
+        <v>1</v>
+      </c>
+      <c r="V559" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="W559" t="n">
+        <v>42551.1</v>
+      </c>
+      <c r="X559" t="n">
+        <v>3079</v>
+      </c>
+      <c r="Y559" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z559" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA559" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AB559" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC559" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD559" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE559" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF559" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG559" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH559" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI559" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ559" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK559" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL559" t="inlineStr"/>
+      <c r="AM559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>45344.67991898148</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>541.9</v>
+      </c>
+      <c r="D560" t="n">
+        <v>532.6</v>
+      </c>
+      <c r="E560" t="n">
+        <v>545.8</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0</v>
+      </c>
+      <c r="G560" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H560" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J560" t="n">
+        <v>0</v>
+      </c>
+      <c r="K560" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="L560" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="M560" t="n">
+        <v>223</v>
+      </c>
+      <c r="N560" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="O560" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="P560" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="Q560" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="R560" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="S560" t="n">
+        <v>60.05</v>
+      </c>
+      <c r="T560" t="n">
+        <v>11969</v>
+      </c>
+      <c r="U560" t="n">
+        <v>1</v>
+      </c>
+      <c r="V560" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="W560" t="n">
+        <v>42552.1</v>
+      </c>
+      <c r="X560" t="n">
+        <v>3079</v>
+      </c>
+      <c r="Y560" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z560" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA560" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB560" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC560" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD560" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AE560" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF560" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG560" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH560" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI560" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ560" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK560" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL560" t="inlineStr"/>
+      <c r="AM560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>45344.68337962963</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>542.9</v>
+      </c>
+      <c r="D561" t="n">
+        <v>525.5</v>
+      </c>
+      <c r="E561" t="n">
+        <v>556.2</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0</v>
+      </c>
+      <c r="G561" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H561" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I561" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J561" t="n">
+        <v>0</v>
+      </c>
+      <c r="K561" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="L561" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="M561" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="N561" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="O561" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="P561" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="Q561" t="n">
+        <v>59.94</v>
+      </c>
+      <c r="R561" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="S561" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="T561" t="n">
+        <v>11386</v>
+      </c>
+      <c r="U561" t="n">
+        <v>1</v>
+      </c>
+      <c r="V561" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="W561" t="n">
+        <v>42553.1</v>
+      </c>
+      <c r="X561" t="n">
+        <v>3079</v>
+      </c>
+      <c r="Y561" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z561" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA561" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB561" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC561" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD561" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AE561" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF561" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG561" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH561" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI561" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ561" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK561" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL561" t="inlineStr"/>
+      <c r="AM561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>45344.68685185185</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>546.8</v>
+      </c>
+      <c r="D562" t="n">
+        <v>540.5</v>
+      </c>
+      <c r="E562" t="n">
+        <v>551.6</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0</v>
+      </c>
+      <c r="G562" t="n">
+        <v>8</v>
+      </c>
+      <c r="H562" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J562" t="n">
+        <v>0</v>
+      </c>
+      <c r="K562" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="L562" t="n">
+        <v>222.4</v>
+      </c>
+      <c r="M562" t="n">
+        <v>223</v>
+      </c>
+      <c r="N562" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="O562" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="P562" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="Q562" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="R562" t="n">
+        <v>60.03</v>
+      </c>
+      <c r="S562" t="n">
+        <v>60</v>
+      </c>
+      <c r="T562" t="n">
+        <v>10845</v>
+      </c>
+      <c r="U562" t="n">
+        <v>1</v>
+      </c>
+      <c r="V562" t="n">
+        <v>39</v>
+      </c>
+      <c r="W562" t="n">
+        <v>42554</v>
+      </c>
+      <c r="X562" t="n">
+        <v>3079</v>
+      </c>
+      <c r="Y562" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z562" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA562" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB562" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC562" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD562" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AE562" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF562" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG562" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH562" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI562" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ562" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK562" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL562" t="inlineStr"/>
+      <c r="AM562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>45344.69033564815</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>531.7</v>
+      </c>
+      <c r="D563" t="n">
+        <v>538.5</v>
+      </c>
+      <c r="E563" t="n">
+        <v>505.9</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0</v>
+      </c>
+      <c r="G563" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H563" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I563" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J563" t="n">
+        <v>0</v>
+      </c>
+      <c r="K563" t="n">
+        <v>223.6</v>
+      </c>
+      <c r="L563" t="n">
+        <v>221.2</v>
+      </c>
+      <c r="M563" t="n">
+        <v>222</v>
+      </c>
+      <c r="N563" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="O563" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="P563" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q563" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="R563" t="n">
+        <v>59.97</v>
+      </c>
+      <c r="S563" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="T563" t="n">
+        <v>6534</v>
+      </c>
+      <c r="U563" t="n">
+        <v>1</v>
+      </c>
+      <c r="V563" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="W563" t="n">
+        <v>42554.8</v>
+      </c>
+      <c r="X563" t="n">
+        <v>3079</v>
+      </c>
+      <c r="Y563" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z563" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA563" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AB563" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC563" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD563" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AE563" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF563" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AG563" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH563" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI563" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ563" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK563" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL563" t="inlineStr"/>
+      <c r="AM563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>45344.6937962963</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>538.9</v>
+      </c>
+      <c r="D564" t="n">
+        <v>515.6</v>
+      </c>
+      <c r="E564" t="n">
+        <v>515.9</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0</v>
+      </c>
+      <c r="G564" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H564" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I564" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J564" t="n">
+        <v>0</v>
+      </c>
+      <c r="K564" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="L564" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="M564" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="N564" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="O564" t="n">
+        <v>9</v>
+      </c>
+      <c r="P564" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q564" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="R564" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="S564" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="T564" t="n">
+        <v>3278</v>
+      </c>
+      <c r="U564" t="n">
+        <v>1</v>
+      </c>
+      <c r="V564" t="n">
+        <v>38</v>
+      </c>
+      <c r="W564" t="n">
+        <v>42555.3</v>
+      </c>
+      <c r="X564" t="n">
+        <v>3079</v>
+      </c>
+      <c r="Y564" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z564" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA564" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB564" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC564" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD564" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AE564" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AF564" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AG564" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH564" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI564" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ564" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK564" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL564" t="inlineStr"/>
+      <c r="AM564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>45344.69728009259</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>563.7</v>
+      </c>
+      <c r="D565" t="n">
+        <v>548.5</v>
+      </c>
+      <c r="E565" t="n">
+        <v>561.4</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0</v>
+      </c>
+      <c r="G565" t="n">
+        <v>7</v>
+      </c>
+      <c r="H565" t="n">
+        <v>8</v>
+      </c>
+      <c r="I565" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J565" t="n">
+        <v>0</v>
+      </c>
+      <c r="K565" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="L565" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="M565" t="n">
+        <v>223</v>
+      </c>
+      <c r="N565" t="n">
+        <v>26</v>
+      </c>
+      <c r="O565" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="P565" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="Q565" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="R565" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="S565" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="T565" t="n">
+        <v>9787</v>
+      </c>
+      <c r="U565" t="n">
+        <v>1</v>
+      </c>
+      <c r="V565" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="W565" t="n">
+        <v>42555.8</v>
+      </c>
+      <c r="X565" t="n">
+        <v>3080</v>
+      </c>
+      <c r="Y565" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z565" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA565" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AB565" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC565" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD565" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AE565" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF565" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG565" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH565" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI565" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ565" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK565" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL565" t="inlineStr"/>
+      <c r="AM565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>45344.70074074074</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>559.9</v>
+      </c>
+      <c r="D566" t="n">
+        <v>545.6</v>
+      </c>
+      <c r="E566" t="n">
+        <v>554.5</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0</v>
+      </c>
+      <c r="G566" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H566" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I566" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J566" t="n">
+        <v>0</v>
+      </c>
+      <c r="K566" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="L566" t="n">
+        <v>222.4</v>
+      </c>
+      <c r="M566" t="n">
+        <v>223</v>
+      </c>
+      <c r="N566" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="O566" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="P566" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Q566" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="R566" t="n">
+        <v>60.03</v>
+      </c>
+      <c r="S566" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="T566" t="n">
+        <v>8744</v>
+      </c>
+      <c r="U566" t="n">
+        <v>1</v>
+      </c>
+      <c r="V566" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="W566" t="n">
+        <v>42556.6</v>
+      </c>
+      <c r="X566" t="n">
+        <v>3080</v>
+      </c>
+      <c r="Y566" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z566" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA566" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AB566" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC566" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD566" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AE566" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF566" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG566" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH566" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI566" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ566" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK566" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL566" t="inlineStr"/>
+      <c r="AM566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>45344.70421296296</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>560.5</v>
+      </c>
+      <c r="D567" t="n">
+        <v>550.2</v>
+      </c>
+      <c r="E567" t="n">
+        <v>541.1</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0</v>
+      </c>
+      <c r="G567" t="n">
+        <v>6</v>
+      </c>
+      <c r="H567" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I567" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J567" t="n">
+        <v>0</v>
+      </c>
+      <c r="K567" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="L567" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="M567" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="N567" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="O567" t="n">
+        <v>22</v>
+      </c>
+      <c r="P567" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="Q567" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="R567" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="S567" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="T567" t="n">
+        <v>8151</v>
+      </c>
+      <c r="U567" t="n">
+        <v>1</v>
+      </c>
+      <c r="V567" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="W567" t="n">
+        <v>42557.3</v>
+      </c>
+      <c r="X567" t="n">
+        <v>3080</v>
+      </c>
+      <c r="Y567" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z567" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA567" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AB567" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC567" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD567" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE567" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF567" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AG567" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH567" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI567" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ567" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK567" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL567" t="inlineStr"/>
+      <c r="AM567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>45344.70768518518</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>568.6</v>
+      </c>
+      <c r="D568" t="n">
+        <v>550.5</v>
+      </c>
+      <c r="E568" t="n">
+        <v>536.8</v>
+      </c>
+      <c r="F568" t="n">
+        <v>0</v>
+      </c>
+      <c r="G568" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H568" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I568" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J568" t="n">
+        <v>0</v>
+      </c>
+      <c r="K568" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="L568" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="M568" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="N568" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="O568" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="P568" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="Q568" t="n">
+        <v>60.05</v>
+      </c>
+      <c r="R568" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="S568" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="T568" t="n">
+        <v>8792</v>
+      </c>
+      <c r="U568" t="n">
+        <v>1</v>
+      </c>
+      <c r="V568" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="W568" t="n">
+        <v>42557.9</v>
+      </c>
+      <c r="X568" t="n">
+        <v>3080</v>
+      </c>
+      <c r="Y568" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z568" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA568" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB568" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC568" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD568" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE568" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF568" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AG568" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH568" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI568" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ568" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK568" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL568" t="inlineStr"/>
+      <c r="AM568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>45344.71116898148</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>547.6</v>
+      </c>
+      <c r="D569" t="n">
+        <v>535.7</v>
+      </c>
+      <c r="E569" t="n">
+        <v>517.4</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0</v>
+      </c>
+      <c r="G569" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H569" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I569" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J569" t="n">
+        <v>0</v>
+      </c>
+      <c r="K569" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="L569" t="n">
+        <v>222</v>
+      </c>
+      <c r="M569" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="N569" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="O569" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="P569" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="Q569" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="R569" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="S569" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="T569" t="n">
+        <v>5627</v>
+      </c>
+      <c r="U569" t="n">
+        <v>1</v>
+      </c>
+      <c r="V569" t="n">
+        <v>37</v>
+      </c>
+      <c r="W569" t="n">
+        <v>42558.6</v>
+      </c>
+      <c r="X569" t="n">
+        <v>3080</v>
+      </c>
+      <c r="Y569" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z569" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA569" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB569" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC569" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD569" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AE569" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF569" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AG569" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH569" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI569" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ569" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK569" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL569" t="inlineStr"/>
+      <c r="AM569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>45344.7146412037</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>552.4</v>
+      </c>
+      <c r="D570" t="n">
+        <v>543.2</v>
+      </c>
+      <c r="E570" t="n">
+        <v>456.1</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0</v>
+      </c>
+      <c r="G570" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H570" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I570" t="n">
+        <v>3</v>
+      </c>
+      <c r="J570" t="n">
+        <v>0</v>
+      </c>
+      <c r="K570" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="L570" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="M570" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="N570" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="O570" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="P570" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="Q570" t="n">
+        <v>60</v>
+      </c>
+      <c r="R570" t="n">
+        <v>60</v>
+      </c>
+      <c r="S570" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="T570" t="n">
+        <v>7204</v>
+      </c>
+      <c r="U570" t="n">
+        <v>1</v>
+      </c>
+      <c r="V570" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="W570" t="n">
+        <v>42559.2</v>
+      </c>
+      <c r="X570" t="n">
+        <v>3080</v>
+      </c>
+      <c r="Y570" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z570" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA570" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB570" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC570" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD570" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AE570" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF570" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AG570" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH570" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI570" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ570" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK570" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL570" t="inlineStr"/>
+      <c r="AM570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>45344.71810185185</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>561.1</v>
+      </c>
+      <c r="D571" t="n">
+        <v>536.7</v>
+      </c>
+      <c r="E571" t="n">
+        <v>473.9</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0</v>
+      </c>
+      <c r="G571" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H571" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I571" t="n">
+        <v>2</v>
+      </c>
+      <c r="J571" t="n">
+        <v>0</v>
+      </c>
+      <c r="K571" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="L571" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="M571" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="N571" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="O571" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="P571" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Q571" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="R571" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="S571" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="T571" t="n">
+        <v>5266</v>
+      </c>
+      <c r="U571" t="n">
+        <v>1</v>
+      </c>
+      <c r="V571" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="W571" t="n">
+        <v>42559.7</v>
+      </c>
+      <c r="X571" t="n">
+        <v>3080</v>
+      </c>
+      <c r="Y571" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z571" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AA571" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB571" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC571" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD571" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AE571" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF571" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG571" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AH571" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI571" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ571" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK571" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL571" t="inlineStr"/>
+      <c r="AM571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>45344.72157407407</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>569.9</v>
+      </c>
+      <c r="D572" t="n">
+        <v>537.6</v>
+      </c>
+      <c r="E572" t="n">
+        <v>488.6</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0</v>
+      </c>
+      <c r="G572" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H572" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I572" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J572" t="n">
+        <v>0</v>
+      </c>
+      <c r="K572" t="n">
+        <v>223.6</v>
+      </c>
+      <c r="L572" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="M572" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="N572" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="O572" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="P572" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="Q572" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="R572" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="S572" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="T572" t="n">
+        <v>3912</v>
+      </c>
+      <c r="U572" t="n">
+        <v>1</v>
+      </c>
+      <c r="V572" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="W572" t="n">
+        <v>42560.1</v>
+      </c>
+      <c r="X572" t="n">
+        <v>3080</v>
+      </c>
+      <c r="Y572" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z572" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA572" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB572" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC572" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD572" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE572" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AF572" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AG572" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH572" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI572" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ572" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK572" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL572" t="inlineStr"/>
+      <c r="AM572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>45344.7250462963</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>556.6</v>
+      </c>
+      <c r="D573" t="n">
+        <v>476.6</v>
+      </c>
+      <c r="E573" t="n">
+        <v>525.5</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0</v>
+      </c>
+      <c r="G573" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H573" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J573" t="n">
+        <v>0</v>
+      </c>
+      <c r="K573" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="L573" t="n">
+        <v>222.4</v>
+      </c>
+      <c r="M573" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="N573" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O573" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="P573" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Q573" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="R573" t="n">
+        <v>60</v>
+      </c>
+      <c r="S573" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="T573" t="n">
+        <v>2451</v>
+      </c>
+      <c r="U573" t="n">
+        <v>1</v>
+      </c>
+      <c r="V573" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="W573" t="n">
+        <v>42560.3</v>
+      </c>
+      <c r="X573" t="n">
+        <v>3080</v>
+      </c>
+      <c r="Y573" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z573" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA573" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB573" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC573" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD573" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE573" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF573" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG573" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH573" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI573" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ573" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK573" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL573" t="inlineStr"/>
+      <c r="AM573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>45344.72853009259</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>577.7</v>
+      </c>
+      <c r="D574" t="n">
+        <v>465.6</v>
+      </c>
+      <c r="E574" t="n">
+        <v>499.2</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0</v>
+      </c>
+      <c r="G574" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H574" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J574" t="n">
+        <v>0</v>
+      </c>
+      <c r="K574" t="n">
+        <v>223.6</v>
+      </c>
+      <c r="L574" t="n">
+        <v>221.6</v>
+      </c>
+      <c r="M574" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="N574" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O574" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="P574" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q574" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="R574" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="S574" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="T574" t="n">
+        <v>1740</v>
+      </c>
+      <c r="U574" t="n">
+        <v>1</v>
+      </c>
+      <c r="V574" t="n">
+        <v>36</v>
+      </c>
+      <c r="W574" t="n">
+        <v>42560.5</v>
+      </c>
+      <c r="X574" t="n">
+        <v>3080</v>
+      </c>
+      <c r="Y574" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z574" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA574" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB574" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC574" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD574" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE574" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF574" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG574" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH574" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI574" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ574" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK574" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL574" t="inlineStr"/>
+      <c r="AM574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>45344.73200231481</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>554.6</v>
+      </c>
+      <c r="D575" t="n">
+        <v>466.5</v>
+      </c>
+      <c r="E575" t="n">
+        <v>527.7</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0</v>
+      </c>
+      <c r="G575" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H575" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J575" t="n">
+        <v>0</v>
+      </c>
+      <c r="K575" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="L575" t="n">
+        <v>222.4</v>
+      </c>
+      <c r="M575" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="N575" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O575" t="n">
+        <v>4</v>
+      </c>
+      <c r="P575" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q575" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="R575" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="S575" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="T575" t="n">
+        <v>1426</v>
+      </c>
+      <c r="U575" t="n">
+        <v>1</v>
+      </c>
+      <c r="V575" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="W575" t="n">
+        <v>42560.6</v>
+      </c>
+      <c r="X575" t="n">
+        <v>3080</v>
+      </c>
+      <c r="Y575" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z575" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA575" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB575" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC575" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD575" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE575" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF575" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG575" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH575" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI575" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ575" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK575" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL575" t="inlineStr"/>
+      <c r="AM575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>45344.73547453704</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>535.8</v>
+      </c>
+      <c r="D576" t="n">
+        <v>527.5</v>
+      </c>
+      <c r="E576" t="n">
+        <v>511.3</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J576" t="n">
+        <v>0</v>
+      </c>
+      <c r="K576" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="L576" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="M576" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="N576" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O576" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P576" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q576" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="R576" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="S576" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="T576" t="n">
+        <v>1061</v>
+      </c>
+      <c r="U576" t="n">
+        <v>1</v>
+      </c>
+      <c r="V576" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="W576" t="n">
+        <v>42560.7</v>
+      </c>
+      <c r="X576" t="n">
+        <v>3080</v>
+      </c>
+      <c r="Y576" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z576" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA576" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB576" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC576" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD576" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE576" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF576" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG576" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH576" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI576" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ576" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK576" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL576" t="inlineStr"/>
+      <c r="AM576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>45344.73893518518</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>565.3</v>
+      </c>
+      <c r="D577" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="E577" t="n">
+        <v>510.3</v>
+      </c>
+      <c r="F577" t="n">
+        <v>0</v>
+      </c>
+      <c r="G577" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J577" t="n">
+        <v>0</v>
+      </c>
+      <c r="K577" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="L577" t="n">
+        <v>222</v>
+      </c>
+      <c r="M577" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="N577" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O577" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P577" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q577" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="R577" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="S577" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="T577" t="n">
+        <v>816</v>
+      </c>
+      <c r="U577" t="n">
+        <v>1</v>
+      </c>
+      <c r="V577" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="W577" t="n">
+        <v>42560.8</v>
+      </c>
+      <c r="X577" t="n">
+        <v>3081</v>
+      </c>
+      <c r="Y577" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z577" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA577" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB577" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC577" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD577" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE577" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF577" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG577" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH577" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI577" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ577" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK577" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL577" t="inlineStr"/>
+      <c r="AM577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>45344.74241898148</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>542.8</v>
+      </c>
+      <c r="D578" t="n">
+        <v>518</v>
+      </c>
+      <c r="E578" t="n">
+        <v>500.7</v>
+      </c>
+      <c r="F578" t="n">
+        <v>0</v>
+      </c>
+      <c r="G578" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J578" t="n">
+        <v>0</v>
+      </c>
+      <c r="K578" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="L578" t="n">
+        <v>222</v>
+      </c>
+      <c r="M578" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="N578" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O578" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P578" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q578" t="n">
+        <v>60</v>
+      </c>
+      <c r="R578" t="n">
+        <v>60</v>
+      </c>
+      <c r="S578" t="n">
+        <v>60</v>
+      </c>
+      <c r="T578" t="n">
+        <v>611</v>
+      </c>
+      <c r="U578" t="n">
+        <v>1</v>
+      </c>
+      <c r="V578" t="n">
+        <v>35</v>
+      </c>
+      <c r="W578" t="n">
+        <v>42560.8</v>
+      </c>
+      <c r="X578" t="n">
+        <v>3081</v>
+      </c>
+      <c r="Y578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z578" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA578" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB578" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC578" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD578" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE578" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF578" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG578" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH578" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI578" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ578" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK578" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL578" t="inlineStr"/>
+      <c r="AM578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>45344.7458912037</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>546.9</v>
+      </c>
+      <c r="D579" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="E579" t="n">
+        <v>469.1</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0</v>
+      </c>
+      <c r="G579" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I579" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J579" t="n">
+        <v>0</v>
+      </c>
+      <c r="K579" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="L579" t="n">
+        <v>223</v>
+      </c>
+      <c r="M579" t="n">
+        <v>223.6</v>
+      </c>
+      <c r="N579" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O579" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P579" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q579" t="n">
+        <v>60</v>
+      </c>
+      <c r="R579" t="n">
+        <v>60</v>
+      </c>
+      <c r="S579" t="n">
+        <v>60</v>
+      </c>
+      <c r="T579" t="n">
+        <v>438</v>
+      </c>
+      <c r="U579" t="n">
+        <v>1</v>
+      </c>
+      <c r="V579" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="W579" t="n">
+        <v>42560.9</v>
+      </c>
+      <c r="X579" t="n">
+        <v>3081</v>
+      </c>
+      <c r="Y579" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z579" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA579" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB579" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC579" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD579" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE579" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF579" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG579" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH579" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI579" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ579" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK579" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL579" t="inlineStr"/>
+      <c r="AM579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>45344.74936342592</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>531.7</v>
+      </c>
+      <c r="D580" t="n">
+        <v>517.5</v>
+      </c>
+      <c r="E580" t="n">
+        <v>419.5</v>
+      </c>
+      <c r="F580" t="n">
+        <v>0</v>
+      </c>
+      <c r="G580" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J580" t="n">
+        <v>0</v>
+      </c>
+      <c r="K580" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="L580" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="M580" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="N580" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O580" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P580" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q580" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="R580" t="n">
+        <v>60.03</v>
+      </c>
+      <c r="S580" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="T580" t="n">
+        <v>272</v>
+      </c>
+      <c r="U580" t="n">
+        <v>1</v>
+      </c>
+      <c r="V580" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="W580" t="n">
+        <v>42560.9</v>
+      </c>
+      <c r="X580" t="n">
+        <v>3081</v>
+      </c>
+      <c r="Y580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z580" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA580" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB580" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC580" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD580" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE580" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF580" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG580" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH580" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI580" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ580" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK580" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL580" t="inlineStr"/>
+      <c r="AM580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>45344.75284722223</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>504.2</v>
+      </c>
+      <c r="D581" t="n">
+        <v>466.7</v>
+      </c>
+      <c r="E581" t="n">
+        <v>380.2</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J581" t="n">
+        <v>0</v>
+      </c>
+      <c r="K581" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="L581" t="n">
+        <v>224</v>
+      </c>
+      <c r="M581" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="N581" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O581" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P581" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q581" t="n">
+        <v>60</v>
+      </c>
+      <c r="R581" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="S581" t="n">
+        <v>60</v>
+      </c>
+      <c r="T581" t="n">
+        <v>211</v>
+      </c>
+      <c r="U581" t="n">
+        <v>1</v>
+      </c>
+      <c r="V581" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="W581" t="n">
+        <v>42560.9</v>
+      </c>
+      <c r="X581" t="n">
+        <v>3081</v>
+      </c>
+      <c r="Y581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z581" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA581" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB581" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC581" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD581" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE581" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF581" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG581" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH581" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI581" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ581" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK581" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL581" t="inlineStr"/>
+      <c r="AM581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>45344.75630787037</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>504.9</v>
+      </c>
+      <c r="D582" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="E582" t="n">
+        <v>365.9</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0</v>
+      </c>
+      <c r="G582" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0</v>
+      </c>
+      <c r="J582" t="n">
+        <v>0</v>
+      </c>
+      <c r="K582" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="L582" t="n">
+        <v>224</v>
+      </c>
+      <c r="M582" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="N582" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O582" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P582" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q582" t="n">
+        <v>60</v>
+      </c>
+      <c r="R582" t="n">
+        <v>60</v>
+      </c>
+      <c r="S582" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="T582" t="n">
+        <v>39</v>
+      </c>
+      <c r="U582" t="n">
+        <v>1</v>
+      </c>
+      <c r="V582" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="W582" t="n">
+        <v>42560.9</v>
+      </c>
+      <c r="X582" t="n">
+        <v>3081</v>
+      </c>
+      <c r="Y582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z582" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA582" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB582" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC582" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD582" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE582" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF582" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG582" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH582" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI582" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ582" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK582" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL582" t="inlineStr"/>
+      <c r="AM582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>45344.75978009259</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>471.7</v>
+      </c>
+      <c r="D583" t="n">
+        <v>255.9</v>
+      </c>
+      <c r="E583" t="n">
+        <v>310.6</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0</v>
+      </c>
+      <c r="J583" t="n">
+        <v>0</v>
+      </c>
+      <c r="K583" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="L583" t="n">
+        <v>222</v>
+      </c>
+      <c r="M583" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="N583" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O583" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P583" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q583" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="R583" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="S583" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="T583" t="n">
+        <v>22</v>
+      </c>
+      <c r="U583" t="n">
+        <v>1</v>
+      </c>
+      <c r="V583" t="n">
+        <v>34</v>
+      </c>
+      <c r="W583" t="n">
+        <v>42561</v>
+      </c>
+      <c r="X583" t="n">
+        <v>3081</v>
+      </c>
+      <c r="Y583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z583" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA583" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB583" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC583" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD583" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE583" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF583" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG583" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH583" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI583" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ583" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK583" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL583" t="inlineStr"/>
+      <c r="AM583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>45344.76325231481</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>432.8</v>
+      </c>
+      <c r="D584" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="E584" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0</v>
+      </c>
+      <c r="G584" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="n">
+        <v>0</v>
+      </c>
+      <c r="J584" t="n">
+        <v>0</v>
+      </c>
+      <c r="K584" t="n">
+        <v>223.6</v>
+      </c>
+      <c r="L584" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="M584" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="N584" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O584" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P584" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q584" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="R584" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="S584" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="T584" t="n">
+        <v>4</v>
+      </c>
+      <c r="U584" t="n">
+        <v>1</v>
+      </c>
+      <c r="V584" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="W584" t="n">
+        <v>42561</v>
+      </c>
+      <c r="X584" t="n">
+        <v>3081</v>
+      </c>
+      <c r="Y584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z584" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA584" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB584" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC584" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD584" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE584" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF584" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG584" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH584" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI584" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ584" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK584" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL584" t="inlineStr"/>
+      <c r="AM584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>45344.76673611111</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>333.4</v>
+      </c>
+      <c r="D585" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="E585" t="n">
+        <v>194.2</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0</v>
+      </c>
+      <c r="J585" t="n">
+        <v>0</v>
+      </c>
+      <c r="K585" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="L585" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="M585" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="N585" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O585" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P585" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q585" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="R585" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="S585" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="T585" t="n">
+        <v>0</v>
+      </c>
+      <c r="U585" t="n">
+        <v>1</v>
+      </c>
+      <c r="V585" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="W585" t="n">
+        <v>42561</v>
+      </c>
+      <c r="X585" t="n">
+        <v>3081</v>
+      </c>
+      <c r="Y585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z585" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA585" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB585" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC585" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD585" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE585" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF585" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG585" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH585" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI585" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ585" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK585" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL585" t="inlineStr"/>
+      <c r="AM585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>45344.77020833334</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="D586" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="E586" t="n">
+        <v>172.1</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0</v>
+      </c>
+      <c r="G586" t="n">
+        <v>0</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0</v>
+      </c>
+      <c r="J586" t="n">
+        <v>0</v>
+      </c>
+      <c r="K586" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="L586" t="n">
+        <v>221.6</v>
+      </c>
+      <c r="M586" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="N586" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O586" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P586" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q586" t="n">
+        <v>60.02</v>
+      </c>
+      <c r="R586" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="S586" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="T586" t="n">
+        <v>2</v>
+      </c>
+      <c r="U586" t="n">
+        <v>1</v>
+      </c>
+      <c r="V586" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="W586" t="n">
+        <v>42561</v>
+      </c>
+      <c r="X586" t="n">
+        <v>3081</v>
+      </c>
+      <c r="Y586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z586" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA586" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB586" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC586" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD586" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE586" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF586" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG586" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH586" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI586" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ586" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK586" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL586" t="inlineStr"/>
+      <c r="AM586" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
